--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dutudn-my.sharepoint.com/personal/102190246_sv1_dut_udn_vn/Documents/PBL4 phân công/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PBL6-ATTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{C067890D-B503-44BE-BF9F-DF882DF17F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A949B105-202B-4DEA-87E6-A33D425502BF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C91566B-D486-4303-9B09-EC79B048BC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{62472FF0-16AF-40B4-9697-2DF7A1728B90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{62472FF0-16AF-40B4-9697-2DF7A1728B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>USER</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>allowViewFILE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
   </si>
 </sst>
 </file>
@@ -209,12 +212,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -227,12 +232,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,18 +795,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="K4" s="5" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="K4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="8"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="9"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
       <c r="K5" s="3" t="s">
         <v>1</v>
       </c>
@@ -813,39 +813,34 @@
       </c>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D9" s="9"/>
-      <c r="F9" s="9"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
         <v>5</v>
@@ -858,9 +853,6 @@
       </c>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="P10" s="3" t="s">
@@ -891,14 +883,14 @@
       </c>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="K14" s="7" t="s">
+      <c r="E14" s="10"/>
+      <c r="K14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="10"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>22</v>
@@ -960,6 +952,9 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="4:17" x14ac:dyDescent="0.4">
